--- a/Quality Sweater Company.xlsx
+++ b/Quality Sweater Company.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Downloads\Python\excel\bussiness_development_course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{419B101A-7FBA-401F-9E59-94CCEFE9CD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5CE355-F517-4682-920C-46F5B5CF9AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{81D5C5F3-0666-40A3-8711-B6E79AEAAAAC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Quality Sweater Company</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Company Break Even</t>
+  </si>
+  <si>
+    <t>Company_break_even</t>
   </si>
 </sst>
 </file>
@@ -103,8 +106,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="174" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -159,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,41 +228,41 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -352,16 +361,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-IN"/>
@@ -1567,456 +1573,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9C22B93-E4B1-487E-98EF-06EDB63B7FB1}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="58" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="3"/>
-    <col min="5" max="5" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="24.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="I2" s="6" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="I2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>20000</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="C6"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="E7" s="16" t="s">
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="E7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="5">
         <v>0.1</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17">
+      <c r="E8" s="10"/>
+      <c r="F8" s="11">
         <f>B21</f>
         <v>0</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="5">
         <v>0.15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="12">
         <v>0.03</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="13">
         <f t="dataTable" ref="F9:F19" dt2D="0" dtr="0" r1="B15"/>
         <v>-21600</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="6">
         <v>0.2</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="14">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="13">
         <v>-17700</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="6">
         <v>32</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="12">
         <v>0.04</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="13">
         <v>-13800</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="4">
         <f>B6+(B8+B9)*B14+(B10+B11)*B16</f>
-        <v>230769.23076923078</v>
-      </c>
-      <c r="C12" s="5" t="str">
+        <v>230769.23076923081</v>
+      </c>
+      <c r="C12" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B12)</f>
         <v>=B6+(B8+B9)*B14+(B10+B11)*B16</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="14">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="13">
         <v>-9900</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C13" s="5"/>
-      <c r="E13" s="18">
+      <c r="C13"/>
+      <c r="E13" s="12">
         <v>0.05</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="13">
         <v>-6000</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="6">
         <v>100000</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="14">
         <v>5.5E-2</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="13">
         <v>-2100.0000000000291</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" spans="1:17" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="21">
-        <v>5.7692307692307696E-2</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="15">
+        <v>5.7692307692307702E-2</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="12">
         <v>0.06</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="13">
         <v>1799.9999999999709</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="1">
         <f>B14*B15</f>
-        <v>5769.2307692307695</v>
-      </c>
-      <c r="C16" s="5" t="str">
+        <v>5769.2307692307704</v>
+      </c>
+      <c r="C16" t="str">
         <f ca="1">_xlfn.FORMULATEXT(B16)</f>
         <v>=B14*B15</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="14">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="13">
         <v>5699.9999999999709</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E17" s="18">
+      <c r="E17" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="13">
         <v>9600</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="14">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="13">
         <v>13500</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="8">
         <v>40</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="12">
         <v>0.08</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="13">
         <v>17400</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="8">
         <f>B16*B19</f>
-        <v>230769.23076923078</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+        <v>230769.23076923081</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="20">
         <f>B20-B12</f>
         <v>0</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="21">
+        <v>5.7700000000000001E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
